--- a/biology/Histoire de la zoologie et de la botanique/Schult/Schult..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Schult/Schult..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josef (ou Joseph) August Schultes est un botaniste, médecin et naturaliste autrichien, né le 15 avril 1773 à Vienne et mort le 21 avril 1831 à Landshut. Il a aussi écrit des récits de voyages.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur en médecine, il est professeur de zoologie, de botanique et de minéralogie au Theresianum de Vienne à partir de 1805, puis, dès l’année suivante, professeur de chimie et de botanique à l’université de Cracovie. À partir de 1808, il enseigne l’histoire naturelle et la chimie à l’université d'Innsbruck. L’année suivante, il enseigne l’histoire naturelle et la botanique à l’université de Landshut et dirige également l’école de chirurgie.
 Il est le père du botaniste Julius Hermann Schultes (1804-1840). Il participe, avec Johann Jakob Roemer (1763-1819) et son fils aîné à la réalisation de la septième édition du Systema Vegetabilium.
@@ -546,9 +560,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sélection
-Österreichs Flora, 1794 — En ligne : première partie, 1814
-Version remaniée[1] : Flora austriaca, 1800
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Österreichs Flora, 1794 — En ligne : première partie, 1814
+Version remaniée : Flora austriaca, 1800
 Reisen durch Oberösterreich in den Jahren 1794, 1795, 1802, 1803, 1804 und 1808, 1809 — En ligne : 1re partie
 Ausflüge nach dem Schneeberg, 1802
 Reise auf den Glockner, 1804 — En ligne : 1re partie ; 2e partie ; 3e partie ; 4e partie
@@ -559,9 +578,43 @@
 Grundriss einer Geschichte und Literatur der Botanik, von Theophrastos Eresios bis auf die neuesten Zeiten, 1817 — Esquisse d'une histoire et de la littérature de la botanique, de Théophraste d'Eresós jusqu'à l'époque la plus récente
 Mantissa … systematis vegetabilium Caroli a Linné …, 1822–1824
 (avec son fils Julius Hermann Schultes), Mantissa … systematis vegetabilium Caroli a Linné …, vol. 3, 1827
-Donau-Fahrten. Handbuch für Reisende auf der Donau vol. 2, Stuttgart et Tübingen, Cotta. 1827
-Liste d’œuvres
-Œuvres en ligne, Bayerische Staatsbibliothek
+Donau-Fahrten. Handbuch für Reisende auf der Donau vol. 2, Stuttgart et Tübingen, Cotta. 1827</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Schult.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schult.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d’œuvres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Œuvres en ligne, Bayerische Staatsbibliothek
 « Schultes, Joseph August », dans Biographisches Lexikon des Kaiserthums Oesterreich</t>
         </is>
       </c>
